--- a/ig/ch-epreg/StructureDefinition-ch-epreg-relatedperson-mother.xlsx
+++ b/ig/ch-epreg/StructureDefinition-ch-epreg-relatedperson-mother.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3150" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2937" uniqueCount="398">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T15:10:51+00:00</t>
+    <t>2025-12-16T12:22:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -355,7 +355,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -446,7 +446,7 @@
     <t>citizenship</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {patient-citizenship|5.2.0}
+    <t xml:space="preserve">Extension {patient-citizenship|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -454,6 +454,10 @@
   </si>
   <si>
     <t>The patient's legal status as citizen of a country.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>RelatedPerson.modifierExtension</t>
@@ -578,7 +582,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/relatedperson-relationshiptype</t>
+    <t>http://hl7.org/fhir/ValueSet/relatedperson-relationshiptype|4.0.1</t>
   </si>
   <si>
     <t>code</t>
@@ -857,10 +861,6 @@
     <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>RelatedPerson.telecom:email.use.value</t>
   </si>
   <si>
@@ -1195,10 +1195,6 @@
     <t>If a related person does not speak the local language, interpreters may be required, so languages spoken and proficiency is an important things to keep track of both for patient and other persons of interest.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:preferred}
-</t>
-  </si>
-  <si>
     <t>LanguageCommunication</t>
   </si>
   <si>
@@ -1259,33 +1255,6 @@
   </si>
   <si>
     <t>preferenceInd</t>
-  </si>
-  <si>
-    <t>RelatedPerson.communication:languageOfCorrespondence</t>
-  </si>
-  <si>
-    <t>languageOfCorrespondence</t>
-  </si>
-  <si>
-    <t>Language of correspondence</t>
-  </si>
-  <si>
-    <t>RelatedPerson.communication:languageOfCorrespondence.id</t>
-  </si>
-  <si>
-    <t>RelatedPerson.communication:languageOfCorrespondence.extension</t>
-  </si>
-  <si>
-    <t>RelatedPerson.communication:languageOfCorrespondence.modifierExtension</t>
-  </si>
-  <si>
-    <t>RelatedPerson.communication:languageOfCorrespondence.language</t>
-  </si>
-  <si>
-    <t>RelatedPerson.communication:languageOfCorrespondence.preferred</t>
-  </si>
-  <si>
-    <t>true</t>
   </si>
 </sst>
 </file>
@@ -1592,7 +1561,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM89"/>
+  <dimension ref="A1:AM83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1601,9 +1570,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="62.1953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.30859375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.671875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.31640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -1626,7 +1595,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="58.23828125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="46.8203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.3515625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -2736,7 +2705,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>136</v>
@@ -2753,14 +2722,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2782,16 +2751,16 @@
         <v>130</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>77</v>
@@ -2840,7 +2809,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2866,10 +2835,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2892,17 +2861,17 @@
         <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>77</v>
@@ -2951,7 +2920,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2966,21 +2935,21 @@
         <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3003,70 +2972,70 @@
         <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="P13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="P13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="R13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3081,10 +3050,10 @@
         <v>97</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>77</v>
@@ -3092,10 +3061,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3118,17 +3087,17 @@
         <v>86</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -3177,7 +3146,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>85</v>
@@ -3192,21 +3161,21 @@
         <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3229,17 +3198,17 @@
         <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3249,7 +3218,7 @@
         <v>77</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>77</v>
@@ -3267,10 +3236,10 @@
         <v>109</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
@@ -3288,7 +3257,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3303,21 +3272,21 @@
         <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3340,17 +3309,17 @@
         <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3399,7 +3368,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3414,21 +3383,21 @@
         <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3451,19 +3420,19 @@
         <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -3500,7 +3469,7 @@
         <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
@@ -3510,7 +3479,7 @@
         <v>134</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3525,21 +3494,21 @@
         <v>97</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3562,13 +3531,13 @@
         <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3619,7 +3588,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3634,7 +3603,7 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>77</v>
@@ -3645,14 +3614,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3674,13 +3643,13 @@
         <v>130</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3721,7 +3690,7 @@
         <v>133</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>77</v>
@@ -3730,7 +3699,7 @@
         <v>134</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3745,7 +3714,7 @@
         <v>136</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
@@ -3756,10 +3725,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3785,10 +3754,10 @@
         <v>105</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3815,13 +3784,13 @@
         <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>77</v>
@@ -3839,7 +3808,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3848,27 +3817,27 @@
         <v>85</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3891,19 +3860,19 @@
         <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>77</v>
@@ -3952,7 +3921,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3967,21 +3936,21 @@
         <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4007,16 +3976,16 @@
         <v>105</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -4041,13 +4010,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -4065,7 +4034,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4080,21 +4049,21 @@
         <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4117,16 +4086,16 @@
         <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4176,7 +4145,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4191,21 +4160,21 @@
         <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4228,13 +4197,13 @@
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4285,7 +4254,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4300,7 +4269,7 @@
         <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4311,13 +4280,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -4339,19 +4308,19 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4400,7 +4369,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4415,21 +4384,21 @@
         <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4452,13 +4421,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4509,7 +4478,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4524,7 +4493,7 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4535,14 +4504,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4564,13 +4533,13 @@
         <v>130</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4611,7 +4580,7 @@
         <v>133</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>77</v>
@@ -4620,7 +4589,7 @@
         <v>134</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4635,7 +4604,7 @@
         <v>136</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -4646,10 +4615,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4675,10 +4644,10 @@
         <v>105</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4687,7 +4656,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4705,13 +4674,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -4729,7 +4698,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4738,27 +4707,27 @@
         <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4781,19 +4750,19 @@
         <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4842,7 +4811,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4857,21 +4826,21 @@
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4897,16 +4866,16 @@
         <v>105</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4931,13 +4900,13 @@
         <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>77</v>
@@ -4955,7 +4924,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4970,21 +4939,21 @@
         <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5007,13 +4976,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5064,7 +5033,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5090,10 +5059,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5171,7 +5140,7 @@
         <v>134</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5197,13 +5166,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="B33" t="s" s="2">
-        <v>263</v>
-      </c>
       <c r="C33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -5225,13 +5194,13 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5282,7 +5251,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5291,7 +5260,7 @@
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>269</v>
+        <v>142</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>136</v>
@@ -5334,7 +5303,7 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>272</v>
@@ -5420,7 +5389,7 @@
         <v>274</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5443,16 +5412,16 @@
         <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5502,7 +5471,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5517,13 +5486,13 @@
         <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36">
@@ -5531,7 +5500,7 @@
         <v>275</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5554,13 +5523,13 @@
         <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5611,7 +5580,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5626,7 +5595,7 @@
         <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -5663,13 +5632,13 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5720,7 +5689,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5735,7 +5704,7 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -5753,7 +5722,7 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5775,13 +5744,13 @@
         <v>130</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5822,7 +5791,7 @@
         <v>133</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>77</v>
@@ -5831,7 +5800,7 @@
         <v>134</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5846,7 +5815,7 @@
         <v>136</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6084,7 +6053,7 @@
         <v>299</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>300</v>
@@ -6112,16 +6081,16 @@
         <v>301</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6170,7 +6139,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6185,13 +6154,13 @@
         <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42">
@@ -6199,7 +6168,7 @@
         <v>302</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6222,13 +6191,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6279,7 +6248,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6294,7 +6263,7 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6308,11 +6277,11 @@
         <v>303</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6334,13 +6303,13 @@
         <v>130</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6381,7 +6350,7 @@
         <v>133</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>77</v>
@@ -6390,7 +6359,7 @@
         <v>134</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6405,7 +6374,7 @@
         <v>136</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6419,7 +6388,7 @@
         <v>304</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6445,10 +6414,10 @@
         <v>105</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6475,13 +6444,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6499,7 +6468,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6508,19 +6477,19 @@
         <v>85</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45">
@@ -6528,7 +6497,7 @@
         <v>305</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6551,19 +6520,19 @@
         <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6612,7 +6581,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6627,13 +6596,13 @@
         <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46">
@@ -6641,7 +6610,7 @@
         <v>306</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6667,16 +6636,16 @@
         <v>105</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6701,13 +6670,13 @@
         <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>77</v>
@@ -6725,7 +6694,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6740,13 +6709,13 @@
         <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47">
@@ -6754,7 +6723,7 @@
         <v>307</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6777,13 +6746,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6834,7 +6803,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6863,7 +6832,7 @@
         <v>308</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6941,7 +6910,7 @@
         <v>134</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -6970,7 +6939,7 @@
         <v>309</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>310</v>
@@ -6998,10 +6967,10 @@
         <v>311</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7052,7 +7021,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7061,7 +7030,7 @@
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>269</v>
+        <v>142</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>136</v>
@@ -7104,7 +7073,7 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>272</v>
@@ -7190,7 +7159,7 @@
         <v>313</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7213,16 +7182,16 @@
         <v>86</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7272,7 +7241,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7287,13 +7256,13 @@
         <v>97</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52">
@@ -7301,7 +7270,7 @@
         <v>314</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7324,13 +7293,13 @@
         <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7381,7 +7350,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7396,7 +7365,7 @@
         <v>97</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7433,13 +7402,13 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7490,7 +7459,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7505,7 +7474,7 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -7523,7 +7492,7 @@
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7545,13 +7514,13 @@
         <v>130</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7592,7 +7561,7 @@
         <v>133</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>77</v>
@@ -7601,7 +7570,7 @@
         <v>134</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7616,7 +7585,7 @@
         <v>136</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -7854,7 +7823,7 @@
         <v>319</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>320</v>
@@ -7882,16 +7851,16 @@
         <v>321</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -7940,7 +7909,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -7955,13 +7924,13 @@
         <v>97</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58">
@@ -7969,7 +7938,7 @@
         <v>322</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7992,13 +7961,13 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8049,7 +8018,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8064,7 +8033,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8078,11 +8047,11 @@
         <v>323</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8104,13 +8073,13 @@
         <v>130</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8151,7 +8120,7 @@
         <v>133</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>77</v>
@@ -8160,7 +8129,7 @@
         <v>134</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8175,7 +8144,7 @@
         <v>136</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8189,7 +8158,7 @@
         <v>324</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8215,10 +8184,10 @@
         <v>105</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8245,13 +8214,13 @@
         <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>77</v>
@@ -8269,7 +8238,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8278,19 +8247,19 @@
         <v>85</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61">
@@ -8298,7 +8267,7 @@
         <v>326</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8321,19 +8290,19 @@
         <v>86</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -8382,7 +8351,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8397,13 +8366,13 @@
         <v>97</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62">
@@ -8411,7 +8380,7 @@
         <v>327</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8437,16 +8406,16 @@
         <v>105</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>77</v>
@@ -8471,13 +8440,13 @@
         <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>77</v>
@@ -8495,7 +8464,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8510,13 +8479,13 @@
         <v>97</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63">
@@ -8524,7 +8493,7 @@
         <v>328</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8547,13 +8516,13 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8604,7 +8573,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -8633,7 +8602,7 @@
         <v>329</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8711,7 +8680,7 @@
         <v>134</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -8740,7 +8709,7 @@
         <v>330</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>331</v>
@@ -8768,10 +8737,10 @@
         <v>332</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8822,7 +8791,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -8831,7 +8800,7 @@
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>269</v>
+        <v>142</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>136</v>
@@ -8874,7 +8843,7 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L66" t="s" s="2">
         <v>272</v>
@@ -8960,7 +8929,7 @@
         <v>334</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8983,16 +8952,16 @@
         <v>86</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9042,7 +9011,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9057,13 +9026,13 @@
         <v>97</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68">
@@ -9071,7 +9040,7 @@
         <v>335</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9094,13 +9063,13 @@
         <v>86</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9151,7 +9120,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9166,7 +9135,7 @@
         <v>97</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9203,13 +9172,13 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9260,7 +9229,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9275,7 +9244,7 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -9293,7 +9262,7 @@
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -9315,13 +9284,13 @@
         <v>130</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9362,7 +9331,7 @@
         <v>133</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>77</v>
@@ -9371,7 +9340,7 @@
         <v>134</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -9386,7 +9355,7 @@
         <v>136</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -9682,7 +9651,7 @@
         <v>77</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y73" t="s" s="2">
         <v>344</v>
@@ -10089,7 +10058,7 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>368</v>
@@ -10247,14 +10216,16 @@
         <v>77</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AC78" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>372</v>
@@ -10272,7 +10243,7 @@
         <v>97</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
@@ -10283,10 +10254,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10309,13 +10280,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10366,7 +10337,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -10381,7 +10352,7 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
@@ -10392,14 +10363,14 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -10421,13 +10392,13 @@
         <v>130</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -10477,7 +10448,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -10492,7 +10463,7 @@
         <v>136</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -10503,14 +10474,14 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -10532,16 +10503,16 @@
         <v>130</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M81" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="N81" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>77</v>
@@ -10590,7 +10561,7 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -10616,10 +10587,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10642,19 +10613,19 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="N82" t="s" s="2">
+      <c r="O82" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>77</v>
@@ -10703,7 +10674,7 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>85</v>
@@ -10718,7 +10689,7 @@
         <v>97</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
@@ -10729,10 +10700,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10755,19 +10726,19 @@
         <v>77</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="N83" t="s" s="2">
+      <c r="O83" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -10816,7 +10787,7 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -10831,686 +10802,12 @@
         <v>97</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="D84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="P84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O86" s="2"/>
-      <c r="P86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="P87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="P88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="P89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM89" t="s" s="2">
         <v>77</v>
       </c>
     </row>
